--- a/Data/EC/NIT-9006129051.xlsx
+++ b/Data/EC/NIT-9006129051.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17D727C4-48C7-4A56-8CAE-379BA4F39494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A1404F6-49B8-48A9-B39B-2D32078B9A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{31F9112B-25DD-4F86-9813-AC912BD9A42E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4265A735-5C29-4FCF-A806-1372771E9CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,165 @@
     <t>AMANDA LUCIA HERAZO MARTINEZ</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
@@ -78,165 +237,6 @@
   </si>
   <si>
     <t>KEVIN DIAZ ESCUDERO</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -650,7 +650,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBA5C12-33CA-7BBA-F5C7-4A8ACE9D4E9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6570A6-76B1-27E6-C5CA-C931622B7297}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9C59B2-9A00-4FCA-BAD5-BF371224A080}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD28C62B-940B-481B-869F-92AF42442E38}">
   <dimension ref="B2:J129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1179,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>34000</v>
+        <v>23800</v>
       </c>
       <c r="G16" s="18">
         <v>850000</v>
@@ -1193,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G17" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1216,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G18" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1285,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G21" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1314,7 +1314,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>34000</v>
@@ -1331,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G23" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1360,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>34000</v>
@@ -1377,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G25" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1400,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G26" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>34000</v>
@@ -1446,19 +1446,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G28" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1475,7 +1475,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>34000</v>
@@ -1492,19 +1492,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G30" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1521,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>34000</v>
@@ -1544,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>34000</v>
@@ -1561,19 +1561,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G33" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1584,19 +1584,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G34" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1613,7 +1613,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>34000</v>
@@ -1636,7 +1636,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>34000</v>
@@ -1653,19 +1653,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G37" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1676,19 +1676,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G38" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1705,7 +1705,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>34000</v>
@@ -1722,19 +1722,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G40" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1751,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>34000</v>
@@ -1774,7 +1774,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>34000</v>
@@ -1791,19 +1791,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G43" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1820,7 +1820,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>34000</v>
@@ -1837,19 +1837,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G45" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1866,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>34000</v>
@@ -1883,19 +1883,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G47" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1906,19 +1906,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G48" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1935,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>34000</v>
@@ -1958,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>34000</v>
@@ -1975,19 +1975,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G51" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2004,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>34000</v>
@@ -2021,19 +2021,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G53" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2044,19 +2044,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G54" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2073,7 +2073,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>34000</v>
@@ -2090,19 +2090,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G56" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2119,7 +2119,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>34000</v>
@@ -2142,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>34000</v>
@@ -2159,19 +2159,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G59" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2188,7 +2188,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>34000</v>
@@ -2205,19 +2205,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G61" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2228,19 +2228,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G62" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2257,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
         <v>34000</v>
@@ -2274,19 +2274,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G64" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2303,7 +2303,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>34000</v>
@@ -2320,19 +2320,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G66" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2349,7 +2349,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>34000</v>
@@ -2372,7 +2372,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
         <v>34000</v>
@@ -2389,19 +2389,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G69" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2412,19 +2412,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F70" s="18">
-        <v>34000</v>
+        <v>22400</v>
       </c>
       <c r="G70" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2435,13 +2435,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>32000</v>
@@ -2458,19 +2458,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F72" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G72" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2481,13 +2481,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F73" s="18">
         <v>32000</v>
@@ -2504,13 +2504,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F74" s="18">
         <v>32000</v>
@@ -2527,19 +2527,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F75" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G75" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2550,19 +2550,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F76" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G76" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2573,13 +2573,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F77" s="18">
         <v>32000</v>
@@ -2596,13 +2596,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F78" s="18">
         <v>32000</v>
@@ -2619,19 +2619,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F79" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G79" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2642,13 +2642,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F80" s="18">
         <v>32000</v>
@@ -2665,19 +2665,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F81" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G81" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2688,19 +2688,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F82" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G82" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2711,13 +2711,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F83" s="18">
         <v>32000</v>
@@ -2734,19 +2734,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F84" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G84" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2757,13 +2757,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F85" s="18">
         <v>32000</v>
@@ -2780,13 +2780,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F86" s="18">
         <v>32000</v>
@@ -2803,19 +2803,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F87" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G87" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2826,13 +2826,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F88" s="18">
         <v>32000</v>
@@ -2849,19 +2849,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F89" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G89" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2872,19 +2872,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F90" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G90" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2895,13 +2895,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F91" s="18">
         <v>32000</v>
@@ -2918,13 +2918,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F92" s="18">
         <v>32000</v>
@@ -2941,19 +2941,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F93" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G93" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2964,19 +2964,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F94" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G94" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2987,13 +2987,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F95" s="18">
         <v>32000</v>
@@ -3010,19 +3010,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F96" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G96" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3033,13 +3033,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F97" s="18">
         <v>32000</v>
@@ -3056,19 +3056,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F98" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G98" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3079,13 +3079,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F99" s="18">
         <v>32000</v>
@@ -3102,13 +3102,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F100" s="18">
         <v>32000</v>
@@ -3125,19 +3125,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F101" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G101" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3148,13 +3148,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F102" s="18">
         <v>32000</v>
@@ -3171,19 +3171,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F103" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G103" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3194,13 +3194,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F104" s="18">
         <v>32000</v>
@@ -3217,19 +3217,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F105" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G105" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3240,19 +3240,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F106" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G106" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3263,13 +3263,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F107" s="18">
         <v>32000</v>
@@ -3286,19 +3286,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F108" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G108" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3309,13 +3309,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F109" s="18">
         <v>32000</v>
@@ -3332,19 +3332,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F110" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G110" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3355,13 +3355,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F111" s="18">
         <v>32000</v>
@@ -3378,13 +3378,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F112" s="18">
         <v>32000</v>
@@ -3401,19 +3401,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F113" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G113" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3424,19 +3424,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F114" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G114" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3447,13 +3447,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F115" s="18">
         <v>32000</v>
@@ -3470,13 +3470,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F116" s="18">
         <v>32000</v>
@@ -3493,19 +3493,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F117" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G117" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3516,19 +3516,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F118" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G118" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3539,13 +3539,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F119" s="18">
         <v>32000</v>
@@ -3562,19 +3562,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F120" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G120" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3585,13 +3585,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F121" s="18">
         <v>32000</v>
@@ -3608,19 +3608,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F122" s="18">
-        <v>23800</v>
+        <v>32000</v>
       </c>
       <c r="G122" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3631,16 +3631,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F123" s="24">
-        <v>22400</v>
+        <v>32000</v>
       </c>
       <c r="G123" s="24">
         <v>800000</v>

--- a/Data/EC/NIT-9006129051.xlsx
+++ b/Data/EC/NIT-9006129051.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A1404F6-49B8-48A9-B39B-2D32078B9A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C409ABB-1F7C-409C-B3BE-1193C05500DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4265A735-5C29-4FCF-A806-1372771E9CCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CCD1E2BC-0065-4D25-AFEE-5541619E0135}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,172 +71,172 @@
     <t>AMANDA LUCIA HERAZO MARTINEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>8852293</t>
+  </si>
+  <si>
+    <t>KEVIN DIAZ ESCUDERO</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>8852293</t>
-  </si>
-  <si>
-    <t>KEVIN DIAZ ESCUDERO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -335,7 +335,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -348,9 +350,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -550,23 +550,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,10 +594,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,7 +650,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6570A6-76B1-27E6-C5CA-C931622B7297}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2CE5E3-F0BD-04AF-8965-070C672BDAE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD28C62B-940B-481B-869F-92AF42442E38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C9566D-0BA6-4C2B-8A9C-A011F4876FE7}">
   <dimension ref="B2:J129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1179,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>23800</v>
+        <v>34000</v>
       </c>
       <c r="G16" s="18">
         <v>850000</v>
@@ -1193,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G17" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1222,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>34000</v>
@@ -1239,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G19" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1285,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G21" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1314,7 +1314,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>34000</v>
@@ -1331,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G23" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1360,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>34000</v>
@@ -1377,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G25" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1406,7 +1406,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>34000</v>
@@ -1423,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G27" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1452,7 +1452,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>34000</v>
@@ -1469,19 +1469,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G29" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1498,7 +1498,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>34000</v>
@@ -1515,19 +1515,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G31" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1544,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>34000</v>
@@ -1561,19 +1561,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G33" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1590,7 +1590,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>34000</v>
@@ -1607,19 +1607,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G35" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1636,7 +1636,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>34000</v>
@@ -1653,19 +1653,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G37" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1682,7 +1682,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>34000</v>
@@ -1699,19 +1699,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G39" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1728,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>34000</v>
@@ -1745,19 +1745,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G41" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1774,7 +1774,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>34000</v>
@@ -1791,19 +1791,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G43" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1820,7 +1820,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>34000</v>
@@ -1837,19 +1837,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G45" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1866,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>34000</v>
@@ -1883,19 +1883,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G47" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1912,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
         <v>34000</v>
@@ -1929,19 +1929,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G49" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1958,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
         <v>34000</v>
@@ -1975,19 +1975,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G51" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2004,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>34000</v>
@@ -2021,19 +2021,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G53" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2050,7 +2050,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>34000</v>
@@ -2067,19 +2067,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G55" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2096,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>34000</v>
@@ -2113,19 +2113,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G57" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2142,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
         <v>34000</v>
@@ -2159,19 +2159,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G59" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2188,7 +2188,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
         <v>34000</v>
@@ -2205,19 +2205,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G61" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2234,7 +2234,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
         <v>34000</v>
@@ -2251,19 +2251,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G63" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2280,7 +2280,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
         <v>34000</v>
@@ -2297,19 +2297,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G65" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2326,7 +2326,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
         <v>34000</v>
@@ -2343,19 +2343,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G67" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2372,7 +2372,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>34000</v>
@@ -2389,19 +2389,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="G69" s="18">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2412,19 +2412,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
-        <v>22400</v>
+        <v>34000</v>
       </c>
       <c r="G70" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2435,13 +2435,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>32000</v>
@@ -2458,19 +2458,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G72" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2481,13 +2481,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>32000</v>
@@ -2504,19 +2504,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G74" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2527,13 +2527,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>32000</v>
@@ -2550,19 +2550,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G76" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2573,13 +2573,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
         <v>32000</v>
@@ -2596,19 +2596,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G78" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2619,13 +2619,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>32000</v>
@@ -2642,19 +2642,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G80" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2665,13 +2665,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
         <v>32000</v>
@@ -2688,19 +2688,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G82" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2711,13 +2711,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F83" s="18">
         <v>32000</v>
@@ -2734,19 +2734,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F84" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G84" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2757,13 +2757,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F85" s="18">
         <v>32000</v>
@@ -2780,19 +2780,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F86" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G86" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2803,13 +2803,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F87" s="18">
         <v>32000</v>
@@ -2826,19 +2826,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F88" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G88" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2849,13 +2849,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F89" s="18">
         <v>32000</v>
@@ -2872,19 +2872,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F90" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G90" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2895,13 +2895,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F91" s="18">
         <v>32000</v>
@@ -2918,19 +2918,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F92" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G92" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2941,13 +2941,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F93" s="18">
         <v>32000</v>
@@ -2964,19 +2964,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F94" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G94" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2987,13 +2987,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F95" s="18">
         <v>32000</v>
@@ -3010,19 +3010,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F96" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G96" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3033,13 +3033,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F97" s="18">
         <v>32000</v>
@@ -3056,19 +3056,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F98" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G98" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3079,13 +3079,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F99" s="18">
         <v>32000</v>
@@ -3102,19 +3102,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F100" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G100" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3125,13 +3125,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F101" s="18">
         <v>32000</v>
@@ -3148,19 +3148,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F102" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G102" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3171,13 +3171,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F103" s="18">
         <v>32000</v>
@@ -3194,19 +3194,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F104" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G104" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3217,13 +3217,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F105" s="18">
         <v>32000</v>
@@ -3240,19 +3240,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F106" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G106" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3263,13 +3263,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F107" s="18">
         <v>32000</v>
@@ -3286,19 +3286,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F108" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G108" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3309,13 +3309,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F109" s="18">
         <v>32000</v>
@@ -3332,19 +3332,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F110" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G110" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3355,13 +3355,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F111" s="18">
         <v>32000</v>
@@ -3378,19 +3378,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F112" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G112" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3401,13 +3401,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F113" s="18">
         <v>32000</v>
@@ -3424,19 +3424,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F114" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G114" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3447,13 +3447,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F115" s="18">
         <v>32000</v>
@@ -3470,19 +3470,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F116" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G116" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3493,13 +3493,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F117" s="18">
         <v>32000</v>
@@ -3516,19 +3516,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F118" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G118" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3539,13 +3539,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F119" s="18">
         <v>32000</v>
@@ -3562,19 +3562,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D120" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="F120" s="18">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G120" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3585,13 +3585,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="F121" s="18">
         <v>32000</v>
@@ -3608,19 +3608,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D122" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E122" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="F122" s="18">
-        <v>32000</v>
+        <v>23800</v>
       </c>
       <c r="G122" s="18">
-        <v>800000</v>
+        <v>850000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3631,16 +3631,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D123" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E123" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="F123" s="24">
-        <v>32000</v>
+        <v>22400</v>
       </c>
       <c r="G123" s="24">
         <v>800000</v>

--- a/Data/EC/NIT-9006129051.xlsx
+++ b/Data/EC/NIT-9006129051.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C409ABB-1F7C-409C-B3BE-1193C05500DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5570CC0-00D8-480D-9371-E9BA207386C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CCD1E2BC-0065-4D25-AFEE-5541619E0135}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5469554C-88AB-4648-BA05-B30B2690F231}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -335,9 +335,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -350,7 +348,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -544,29 +544,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,19 +585,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,7 +656,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2CE5E3-F0BD-04AF-8965-070C672BDAE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C488A5-6BCE-1813-C20C-031944B709AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C9566D-0BA6-4C2B-8A9C-A011F4876FE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7328DFC-4748-4D11-8264-2CCD8987FFB0}">
   <dimension ref="B2:J129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1024,49 +1030,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1074,7 +1080,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9006129051</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>3544200</v>
       </c>
@@ -1175,18 +1181,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G16" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G16" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1198,18 +1204,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G17" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G17" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1221,18 +1227,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G18" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G18" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1244,18 +1250,18 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G19" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G19" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1267,18 +1273,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G20" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1290,18 +1296,18 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G21" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G21" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1313,18 +1319,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1336,18 +1342,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G23" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G23" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1359,18 +1365,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1382,18 +1388,18 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1405,18 +1411,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1428,18 +1434,18 @@
       <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1451,18 +1457,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1474,18 +1480,18 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1497,18 +1503,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1520,18 +1526,18 @@
       <c r="D31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1543,18 +1549,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1566,18 +1572,18 @@
       <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1589,18 +1595,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1612,18 +1618,18 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G35" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1635,18 +1641,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1658,18 +1664,18 @@
       <c r="D37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G37" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1681,18 +1687,18 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1704,18 +1710,18 @@
       <c r="D39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1727,18 +1733,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1750,18 +1756,18 @@
       <c r="D41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G41" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1773,18 +1779,18 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1796,18 +1802,18 @@
       <c r="D43" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G43" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1819,18 +1825,18 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1842,18 +1848,18 @@
       <c r="D45" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G45" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1865,18 +1871,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G46" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1888,18 +1894,18 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G47" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1911,18 +1917,18 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G48" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1934,18 +1940,18 @@
       <c r="D49" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G49" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1957,18 +1963,18 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G50" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1980,18 +1986,18 @@
       <c r="D51" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G51" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2003,18 +2009,18 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G52" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2026,18 +2032,18 @@
       <c r="D53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G53" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2049,18 +2055,18 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G54" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2072,18 +2078,18 @@
       <c r="D55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G55" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2095,18 +2101,18 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G56" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2118,18 +2124,18 @@
       <c r="D57" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F57" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G57" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2141,18 +2147,18 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G58" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2164,18 +2170,18 @@
       <c r="D59" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F59" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G59" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2187,18 +2193,18 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F60" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G60" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G60" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2210,18 +2216,18 @@
       <c r="D61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G61" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G61" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2233,18 +2239,18 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G62" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2256,18 +2262,18 @@
       <c r="D63" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F63" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G63" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G63" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2279,18 +2285,18 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G64" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G64" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2302,18 +2308,18 @@
       <c r="D65" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G65" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G65" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2325,18 +2331,18 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G66" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G66" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2348,18 +2354,18 @@
       <c r="D67" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F67" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G67" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G67" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2371,18 +2377,18 @@
       <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F68" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G68" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G68" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2394,18 +2400,18 @@
       <c r="D69" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F69" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G69" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G69" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2417,18 +2423,18 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F70" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G70" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G70" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2440,18 +2446,18 @@
       <c r="D71" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F71" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G71" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G71" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2463,18 +2469,18 @@
       <c r="D72" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F72" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G72" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G72" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2486,18 +2492,18 @@
       <c r="D73" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G73" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G73" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2509,18 +2515,18 @@
       <c r="D74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F74" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G74" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G74" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2532,18 +2538,18 @@
       <c r="D75" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G75" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G75" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2555,18 +2561,18 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G76" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G76" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2578,18 +2584,18 @@
       <c r="D77" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F77" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G77" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G77" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2601,18 +2607,18 @@
       <c r="D78" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F78" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G78" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G78" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2624,18 +2630,18 @@
       <c r="D79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F79" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G79" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G79" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2647,18 +2653,18 @@
       <c r="D80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F80" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G80" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G80" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2670,18 +2676,18 @@
       <c r="D81" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F81" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G81" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G81" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2693,18 +2699,18 @@
       <c r="D82" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G82" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G82" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2716,18 +2722,18 @@
       <c r="D83" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G83" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G83" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2739,18 +2745,18 @@
       <c r="D84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G84" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G84" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2762,18 +2768,18 @@
       <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F85" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G85" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G85" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2785,18 +2791,18 @@
       <c r="D86" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F86" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G86" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G86" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2808,18 +2814,18 @@
       <c r="D87" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F87" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G87" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G87" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2831,18 +2837,18 @@
       <c r="D88" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F88" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G88" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G88" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2854,18 +2860,18 @@
       <c r="D89" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F89" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G89" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G89" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2877,18 +2883,18 @@
       <c r="D90" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F90" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G90" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G90" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -2900,18 +2906,18 @@
       <c r="D91" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F91" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G91" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G91" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -2923,18 +2929,18 @@
       <c r="D92" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F92" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G92" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G92" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -2946,18 +2952,18 @@
       <c r="D93" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F93" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G93" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G93" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -2969,18 +2975,18 @@
       <c r="D94" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F94" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G94" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G94" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -2992,18 +2998,18 @@
       <c r="D95" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F95" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G95" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G95" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3015,18 +3021,18 @@
       <c r="D96" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F96" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G96" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G96" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3038,18 +3044,18 @@
       <c r="D97" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F97" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G97" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G97" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3061,18 +3067,18 @@
       <c r="D98" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F98" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G98" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="F98" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G98" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3084,18 +3090,18 @@
       <c r="D99" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F99" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G99" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G99" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3107,18 +3113,18 @@
       <c r="D100" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F100" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G100" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G100" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3130,18 +3136,18 @@
       <c r="D101" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F101" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G101" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="F101" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G101" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3153,18 +3159,18 @@
       <c r="D102" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F102" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G102" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F102" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G102" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3176,18 +3182,18 @@
       <c r="D103" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F103" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G103" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G103" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3199,18 +3205,18 @@
       <c r="D104" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F104" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G104" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="F104" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G104" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3222,18 +3228,18 @@
       <c r="D105" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F105" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G105" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G105" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3245,18 +3251,18 @@
       <c r="D106" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F106" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G106" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F106" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G106" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3268,18 +3274,18 @@
       <c r="D107" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F107" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G107" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="F107" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G107" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3291,18 +3297,18 @@
       <c r="D108" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F108" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G108" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="F108" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G108" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3314,18 +3320,18 @@
       <c r="D109" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F109" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G109" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="F109" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G109" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3337,18 +3343,18 @@
       <c r="D110" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F110" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G110" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="F110" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G110" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3360,18 +3366,18 @@
       <c r="D111" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F111" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G111" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="F111" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G111" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3383,18 +3389,18 @@
       <c r="D112" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F112" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G112" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="F112" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G112" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3406,18 +3412,18 @@
       <c r="D113" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F113" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G113" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="F113" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G113" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3429,18 +3435,18 @@
       <c r="D114" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F114" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G114" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="F114" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G114" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3452,18 +3458,18 @@
       <c r="D115" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F115" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G115" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="F115" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G115" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
@@ -3475,18 +3481,18 @@
       <c r="D116" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F116" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G116" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="F116" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G116" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
@@ -3498,18 +3504,18 @@
       <c r="D117" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F117" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G117" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="F117" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G117" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
@@ -3521,18 +3527,18 @@
       <c r="D118" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F118" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G118" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="F118" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G118" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
@@ -3544,18 +3550,18 @@
       <c r="D119" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F119" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G119" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="F119" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G119" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
@@ -3567,18 +3573,18 @@
       <c r="D120" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F120" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G120" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="F120" s="19">
+        <v>34000</v>
+      </c>
+      <c r="G120" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
@@ -3590,18 +3596,18 @@
       <c r="D121" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F121" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G121" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="F121" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G121" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
@@ -3613,47 +3619,47 @@
       <c r="D122" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F122" s="18">
+      <c r="F122" s="19">
         <v>23800</v>
       </c>
-      <c r="G122" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="G122" s="19">
+        <v>850000</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" s="22" t="s">
+      <c r="B123" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F123" s="24">
+      <c r="F123" s="26">
         <v>22400</v>
       </c>
-      <c r="G123" s="24">
-        <v>800000</v>
-      </c>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="26"/>
+      <c r="G123" s="26">
+        <v>800000</v>
+      </c>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="28"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B128" s="32" t="s">
+      <c r="B128" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C128" s="32"/>
+      <c r="C128" s="34"/>
       <c r="H128" s="1" t="s">
         <v>76</v>
       </c>
@@ -3661,10 +3667,10 @@
       <c r="J128" s="1"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="32" t="s">
+      <c r="B129" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C129" s="32"/>
+      <c r="C129" s="34"/>
       <c r="H129" s="1" t="s">
         <v>77</v>
       </c>
